--- a/WorldChampionshipData.xlsx
+++ b/WorldChampionshipData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnh\Desktop\CS 6730\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnh\Desktop\CS 6730\Final Project\CS6730-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F7B0C-620E-47E4-B4CE-615F833A0DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90403CBE-BED1-44F6-9183-AF5698B8B34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{669904A4-BE2D-4F1D-9494-307A12A46C6D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="114">
   <si>
     <t>Year</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Necrozma</t>
   </si>
 </sst>
 </file>
@@ -744,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A6CC43-19ED-4726-927D-29A25BFE39C9}">
   <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J383" sqref="J383"/>
+    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P374" sqref="P374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2870,7 +2873,7 @@
         <v>6</v>
       </c>
       <c r="D151" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4228,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5628,7 +5631,7 @@
         <v>5</v>
       </c>
       <c r="D348" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6048,7 +6051,7 @@
         <v>5</v>
       </c>
       <c r="D378" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">

--- a/WorldChampionshipData.xlsx
+++ b/WorldChampionshipData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnh\Desktop\CS 6730\Final Project\CS6730-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90403CBE-BED1-44F6-9183-AF5698B8B34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01BC4EB-A46F-41BA-8ACE-C1F0CCE51736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{669904A4-BE2D-4F1D-9494-307A12A46C6D}"/>
   </bookViews>
@@ -748,7 +748,7 @@
   <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A359" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P374" sqref="P374"/>
+      <selection activeCell="D378" sqref="D378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
